--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22875" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="22875" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="queryorder" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="signnew" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$16</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>module</t>
   </si>
@@ -291,16 +291,31 @@
 "dataItems":[]
 }</t>
   </si>
+  <si>
+    <t>验签</t>
+  </si>
+  <si>
+    <t>signnew_wx_001</t>
+  </si>
+  <si>
+    <t>微信验签</t>
+  </si>
+  <si>
+    <t>http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory</t>
+  </si>
+  <si>
+    <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-WW1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -316,6 +331,20 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -335,17 +364,33 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF00FF00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -355,24 +400,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,16 +431,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,45 +454,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +478,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +506,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,21 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -725,16 +725,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,17 +756,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -775,16 +764,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +801,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -805,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,172 +832,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1337,25 +1355,25 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="8" width="28" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="10.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
@@ -1421,14 +1439,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>200</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -1452,7 +1470,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>200</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -1483,7 +1501,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>10021</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -1514,7 +1532,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>10022</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1545,7 +1563,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>10022</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1580,7 +1598,7 @@
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1615,7 +1633,7 @@
       <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1650,7 +1668,7 @@
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>10023</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -1685,7 +1703,7 @@
       <c r="I10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>10024</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1720,7 +1738,7 @@
       <c r="I11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>200</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -1751,7 +1769,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>200</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -1782,7 +1800,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>200</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -1813,7 +1831,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>10021</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1844,7 +1862,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>10022</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1875,7 +1893,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>10022</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -1885,89 +1903,89 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16">
@@ -2001,28 +2019,28 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="1" s="10" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="2" s="10" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -2073,7 +2091,7 @@
       <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2089,7 +2107,7 @@
       <c r="I2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -2098,17 +2116,17 @@
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24" spans="1:11">
+    <row r="3" s="10" customFormat="1" ht="24" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2117,30 +2135,30 @@
       <c r="G3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>84</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="4" s="10" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2149,13 +2167,13 @@
       <c r="G4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -2176,14 +2194,261 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="4:11">
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="4:11">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="4:11">
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="4:11">
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:11">
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="4:11">
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="4:11">
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="4:11">
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:11">
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:11">
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="4:11">
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:11">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:11">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="4:11">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:11">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:11">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="4:11">
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory" tooltip="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>module</t>
   </si>
@@ -304,6 +304,15 @@
     <t>http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory</t>
   </si>
   <si>
+    <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-CS1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
+  </si>
+  <si>
+    <t>signnew_zfb_002</t>
+  </si>
+  <si>
+    <t>支付宝验签</t>
+  </si>
+  <si>
     <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-WW1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
   </si>
 </sst>
@@ -314,8 +323,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -363,38 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,15 +394,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,10 +423,64 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,36 +499,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -506,187 +515,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +720,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,30 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -804,6 +780,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -812,6 +797,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,16 +841,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,116 +862,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,9 +1000,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2019,8 +2025,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2028,19 +2034,19 @@
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="2" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -2091,7 +2097,7 @@
       <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2116,17 +2122,17 @@
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" s="10" customFormat="1" ht="24" spans="1:11">
+    <row r="3" s="5" customFormat="1" ht="24" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2135,7 +2141,7 @@
       <c r="G3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2148,17 +2154,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="4" s="5" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2167,7 +2173,7 @@
       <c r="G4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2197,13 +2203,13 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
@@ -2282,7 +2288,9 @@
       <c r="H2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J2" s="7">
         <v>200</v>
       </c>
@@ -2292,14 +2300,40 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="4:11">
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+    <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="7">
+        <v>200</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="4:11">
       <c r="D4" s="2"/>
@@ -2448,6 +2482,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory" tooltip="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory" tooltip="http://10.10.203.33:8185/jscsp-signatory/serviceRequest/signatory"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -295,7 +295,7 @@
     <t>验签</t>
   </si>
   <si>
-    <t>signnew_wx_001</t>
+    <t>微信验签_001</t>
   </si>
   <si>
     <t>微信验签</t>
@@ -307,7 +307,7 @@
     <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-CS1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
   </si>
   <si>
-    <t>signnew_zfb_002</t>
+    <t>支付宝验签_002</t>
   </si>
   <si>
     <t>支付宝验签</t>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -379,29 +379,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,38 +419,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,10 +457,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,9 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,187 +515,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,36 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,17 +742,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,16 +799,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,145 +829,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2025,8 +2025,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2202,8 +2202,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
   <si>
     <t>module</t>
   </si>
@@ -307,6 +307,9 @@
     <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-CS1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>支付宝验签_002</t>
   </si>
   <si>
@@ -321,10 +324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -374,29 +377,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +465,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -515,6 +518,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,126 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,30 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,6 +738,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +801,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -829,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,16 +844,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,112 +865,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2203,7 +2206,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2215,7 +2218,7 @@
     <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
@@ -2291,12 +2294,10 @@
       <c r="I2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="7">
-        <v>200</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
@@ -2305,10 +2306,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>91</v>
@@ -2321,17 +2322,15 @@
         <v>77</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="7">
-        <v>200</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -324,10 +324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -377,6 +377,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,29 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -518,6 +518,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,36 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +727,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,15 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,21 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -832,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,133 +844,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2205,8 +2205,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2221,7 +2221,7 @@
     <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="queryorder" sheetId="2" r:id="rId2"/>
+    <sheet name="cloudorder" sheetId="2" r:id="rId2"/>
     <sheet name="signnew" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -255,7 +255,7 @@
     <t>{"Content-Type": "application/json"}</t>
   </si>
   <si>
-    <t>{"serviceId":"fc.park.pay.query","attributes":{"parkCode":"20181213001","orderNo":"BK1e2bdd983ec342dd8752c78a5541b7"}}</t>
+    <t>{"serviceId":"fc.park.pay.query","attributes":{"parkCode":"20181213001","orderNo":"DK120051816130410560140697817477"}}</t>
   </si>
   <si>
     <t>json</t>
@@ -282,14 +282,8 @@
     <t>订单主表查询</t>
   </si>
   <si>
-    <t>{
-"serviceId":"JSCSP_ORDER_MAINQUERY",
-"attributes":{
-"transactionId":"",
-"orderNo":"CFTC1190322182156188859335640254"
-},
-"dataItems":[]
-}</t>
+    <t>{"serviceId":"JSCSP_ORDER_MAINQUERY","attributes":{"transactionId":"","orderNo":"CFTC1190322182156188859335640254"
+},"dataItems":[]}</t>
   </si>
   <si>
     <t>验签</t>
@@ -316,7 +310,7 @@
     <t>支付宝验签</t>
   </si>
   <si>
-    <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-WW1111","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
+    <t>{"serviceId":"fc.park.signatoryResult.OrderQuery","data":{"parkCode":"20181213001","dataItems":[{"carNo":"藏-ZFB999","inTime":"2019-4-15 09:45:46","vehicleInfo":"{\"plateColor\":\"BLUE\"}"}]}}</t>
   </si>
 </sst>
 </file>
@@ -329,7 +323,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +340,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF00FF00"/>
       <name val="宋体"/>
@@ -357,22 +372,6 @@
       <color rgb="FF808000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -418,6 +417,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +474,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -518,6 +533,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,175 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,187 +844,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1369,20 +1396,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12" customWidth="1"/>
+    <col min="8" max="8" width="28" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
@@ -1442,20 +1469,20 @@
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6">
         <v>200</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -1473,19 +1500,19 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6">
         <v>200</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
@@ -1504,19 +1531,19 @@
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
         <v>10021</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
@@ -1535,19 +1562,19 @@
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
         <v>10022</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
@@ -1566,19 +1593,19 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
         <v>10022</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:13">
@@ -1597,23 +1624,23 @@
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:13">
@@ -1632,23 +1659,23 @@
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:13">
@@ -1667,23 +1694,23 @@
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>10023</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" ht="52.5" customHeight="1" spans="1:13">
@@ -1702,23 +1729,23 @@
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>10024</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" ht="51.75" customHeight="1" spans="1:13">
@@ -1737,23 +1764,23 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>200</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:13">
@@ -1772,16 +1799,16 @@
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6">
         <v>200</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="4"/>
@@ -1803,16 +1830,16 @@
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
         <v>200</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="4"/>
@@ -1834,13 +1861,13 @@
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6">
         <v>10021</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1865,13 +1892,13 @@
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6">
         <v>10022</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1896,13 +1923,13 @@
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6">
         <v>10022</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -1912,89 +1939,89 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16">
@@ -2028,8 +2055,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2043,13 +2070,14 @@
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -2106,95 +2134,94 @@
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="24" spans="1:11">
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://10.10.203.19:8081/order-api-dispatcher/order/dispatcher"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://10.10.203.19:8081/order-api-dispatcher/order/dispatcher"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://10.10.203.19:8081/order-api-dispatcher/order/dispatcher"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2205,8 +2232,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2220,11 +2247,11 @@
     <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
@@ -2284,22 +2311,21 @@
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -2317,24 +2343,23 @@
       <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="4:11">
+      <c r="K3" s="5"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="4:13">
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2342,6 +2367,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="4:11">
       <c r="D5" s="2"/>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22875" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="22875" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -383,7 +383,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,29 +503,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -533,6 +533,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,168 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,17 +742,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,15 +777,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,17 +816,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,145 +847,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2055,7 +2055,7 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2232,8 +2232,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/testcase/CloudAPITestCase.xlsx
+++ b/testcase/CloudAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22875" windowHeight="10440" activeTab="2"/>
+    <workbookView windowWidth="22875" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -360,6 +360,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF00FF00"/>
@@ -381,16 +389,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -404,6 +440,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -412,39 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,32 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,8 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,19 +533,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,163 +611,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,6 +742,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,38 +790,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,25 +826,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -859,137 +859,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1020,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,10 +1035,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,20 +1399,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11" style="12" customWidth="1"/>
-    <col min="8" max="8" width="28" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11" style="13" customWidth="1"/>
+    <col min="8" max="8" width="28" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9" style="14" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
@@ -1481,8 +1484,8 @@
       <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -1939,89 +1942,89 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16">
@@ -2055,8 +2058,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2163,7 +2166,7 @@
       <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2197,7 +2200,7 @@
       <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2206,7 +2209,7 @@
       <c r="G4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2222,6 +2225,9 @@
       <c r="M4" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://10.10.203.19:8081/order-api-dispatcher/order/dispatcher"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2232,7 +2238,7 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
